--- a/Lifetime Predictions.xlsx
+++ b/Lifetime Predictions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C058B804-A79C-4604-8CF0-33AD7B17544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77730681-2A05-4F1E-9C4D-91016FB22712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
     <sheet name="Predictions" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -225,12 +260,36 @@
   </si>
   <si>
     <t>85 &lt;</t>
+  </si>
+  <si>
+    <t>Playing At:  San Jose Sharks   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Nashville Predators   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Ottawa Senators   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  St. Louis Blues   Home</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins</t>
+  </si>
+  <si>
+    <t>Playing At:  Pittsburgh Penguins   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  New Jersey Devils   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Los Angeles Kings   Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,8 +776,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -779,7 +838,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45270.401728935183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45271.320214004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
   </cacheSource>
@@ -816,7 +875,7 @@
         <s v="&gt; 85" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner )/SUM(Model )" databaseField="0"/>
+    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -827,7 +886,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -955,8 +1014,8 @@
     <s v="San Jose Sharks"/>
     <n v="0.13"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -965,8 +1024,8 @@
     <s v="New Jersey Devils"/>
     <n v="0.17799999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -975,8 +1034,8 @@
     <s v="Anaheim Ducks"/>
     <n v="0.19800000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -985,8 +1044,8 @@
     <s v="Seattle Kraken"/>
     <n v="0.23599999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -995,8 +1054,8 @@
     <s v="Montreal Canadiens"/>
     <n v="0.25600000000000001"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -1005,8 +1064,8 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.29799999999999999"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -1015,8 +1074,8 @@
     <s v="Los Angeles Kings"/>
     <n v="0.31"/>
     <s v="Playing At:  New York Rangers   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
@@ -1025,8 +1084,8 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.39800000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
-    <x v="5"/>
+    <n v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <m/>
@@ -1042,7 +1101,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1412,22 +1471,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1441,98 +1500,98 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" ref="D5:D10" si="0">C5/B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D9" si="0">C5/B5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="5">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="6">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10" s="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,24 +1599,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45269</v>
       </c>
@@ -1609,7 +1668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45269</v>
       </c>
@@ -1635,7 +1694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45269</v>
       </c>
@@ -1661,7 +1720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1687,7 +1746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45269</v>
       </c>
@@ -1713,7 +1772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45269</v>
       </c>
@@ -1739,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45269</v>
       </c>
@@ -1765,7 +1824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45269</v>
       </c>
@@ -1791,7 +1850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45269</v>
       </c>
@@ -1817,7 +1876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45269</v>
       </c>
@@ -1843,7 +1902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45269</v>
       </c>
@@ -1869,7 +1928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45269</v>
       </c>
@@ -1895,7 +1954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45270</v>
       </c>
@@ -1914,8 +1973,14 @@
       <c r="F14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
@@ -1934,8 +1999,14 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45270</v>
       </c>
@@ -1954,8 +2025,14 @@
       <c r="F16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45270</v>
       </c>
@@ -1974,8 +2051,14 @@
       <c r="F17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45270</v>
       </c>
@@ -1994,8 +2077,14 @@
       <c r="F18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45270</v>
       </c>
@@ -2014,8 +2103,14 @@
       <c r="F19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45270</v>
       </c>
@@ -2034,8 +2129,14 @@
       <c r="F20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45270</v>
       </c>
@@ -2054,8 +2155,462 @@
       <c r="F21" t="s">
         <v>37</v>
       </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(C22 &gt;= 0.85, "85  &lt;", AND(C22 &gt;=0.8, C22 &lt; 0.85), "80-85", AND(C22 &gt;= 0.7, C22 &lt; 0.8), "70-80", AND(C22 &gt;= 0.6, C22 &lt; 0.7),  "60-70", AND(C22 &gt;= 0.5, C22 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(C23 &gt;= 0.85, "85  &lt;", AND(C23 &gt;=0.8, C23 &lt; 0.85), "80-85", AND(C23 &gt;= 0.7, C23 &lt; 0.8), "70-80", AND(C23 &gt;= 0.6, C23 &lt; 0.7),  "60-70", AND(C23 &gt;= 0.5, C23 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(C24 &gt;= 0.85, "85  &lt;", AND(C24 &gt;=0.8, C24 &lt; 0.85), "80-85", AND(C24 &gt;= 0.7, C24 &lt; 0.8), "70-80", AND(C24 &gt;= 0.6, C24 &lt; 0.7),  "60-70", AND(C24 &gt;= 0.5, C24 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(C25 &gt;= 0.85, "85  &lt;", AND(C25 &gt;=0.8, C25 &lt; 0.85), "80-85", AND(C25 &gt;= 0.7, C25 &lt; 0.8), "70-80", AND(C25 &gt;= 0.6, C25 &lt; 0.7),  "60-70", AND(C25 &gt;= 0.5, C25 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="H26" t="e" cm="1">
+        <f t="array" ref="H26">_xlfn.IFS(C26 &gt;= 0.85, "85  &lt;", AND(C26 &gt;=0.8, C26 &lt; 0.85), "80-85", AND(C26 &gt;= 0.7, C26 &lt; 0.8), "70-80", AND(C26 &gt;= 0.6, C26 &lt; 0.7),  "60-70", AND(C26 &gt;= 0.5, C26 &lt; 0.6), "50-60")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="str" cm="1">
+        <f t="array" ref="H27">_xlfn.IFS(C27 &gt;= 0.85, "85  &lt;", AND(C27 &gt;=0.8, C27 &lt; 0.85), "80-85", AND(C27 &gt;= 0.7, C27 &lt; 0.8), "70-80", AND(C27 &gt;= 0.6, C27 &lt; 0.7),  "60-70", AND(C27 &gt;= 0.5, C27 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="str" cm="1">
+        <f t="array" ref="H28">_xlfn.IFS(C28 &gt;= 0.85, "85  &lt;", AND(C28 &gt;=0.8, C28 &lt; 0.85), "80-85", AND(C28 &gt;= 0.7, C28 &lt; 0.8), "70-80", AND(C28 &gt;= 0.6, C28 &lt; 0.7),  "60-70", AND(C28 &gt;= 0.5, C28 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="str" cm="1">
+        <f t="array" ref="H29">_xlfn.IFS(C29 &gt;= 0.85, "85  &lt;", AND(C29 &gt;=0.8, C29 &lt; 0.85), "80-85", AND(C29 &gt;= 0.7, C29 &lt; 0.8), "70-80", AND(C29 &gt;= 0.6, C29 &lt; 0.7),  "60-70", AND(C29 &gt;= 0.5, C29 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="str" cm="1">
+        <f t="array" ref="H30">_xlfn.IFS(C30 &gt;= 0.85, "85  &lt;", AND(C30 &gt;=0.8, C30 &lt; 0.85), "80-85", AND(C30 &gt;= 0.7, C30 &lt; 0.8), "70-80", AND(C30 &gt;= 0.6, C30 &lt; 0.7),  "60-70", AND(C30 &gt;= 0.5, C30 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="str" cm="1">
+        <f t="array" ref="H31">_xlfn.IFS(C31 &gt;= 0.85, "85  &lt;", AND(C31 &gt;=0.8, C31 &lt; 0.85), "80-85", AND(C31 &gt;= 0.7, C31 &lt; 0.8), "70-80", AND(C31 &gt;= 0.6, C31 &lt; 0.7),  "60-70", AND(C31 &gt;= 0.5, C31 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="str" cm="1">
+        <f t="array" ref="H32">_xlfn.IFS(C32 &gt;= 0.85, "85  &lt;", AND(C32 &gt;=0.8, C32 &lt; 0.85), "80-85", AND(C32 &gt;= 0.7, C32 &lt; 0.8), "70-80", AND(C32 &gt;= 0.6, C32 &lt; 0.7),  "60-70", AND(C32 &gt;= 0.5, C32 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="str" cm="1">
+        <f t="array" ref="H33">_xlfn.IFS(C33 &gt;= 0.85, "85  &lt;", AND(C33 &gt;=0.8, C33 &lt; 0.85), "80-85", AND(C33 &gt;= 0.7, C33 &lt; 0.8), "70-80", AND(C33 &gt;= 0.6, C33 &lt; 0.7),  "60-70", AND(C33 &gt;= 0.5, C33 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="str" cm="1">
+        <f t="array" ref="H34">_xlfn.IFS(C34 &gt;= 0.85, "85  &lt;", AND(C34 &gt;=0.8, C34 &lt; 0.85), "80-85", AND(C34 &gt;= 0.7, C34 &lt; 0.8), "70-80", AND(C34 &gt;= 0.6, C34 &lt; 0.7),  "60-70", AND(C34 &gt;= 0.5, C34 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="str" cm="1">
+        <f t="array" ref="H35">_xlfn.IFS(C35 &gt;= 0.85, "85  &lt;", AND(C35 &gt;=0.8, C35 &lt; 0.85), "80-85", AND(C35 &gt;= 0.7, C35 &lt; 0.8), "70-80", AND(C35 &gt;= 0.6, C35 &lt; 0.7),  "60-70", AND(C35 &gt;= 0.5, C35 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="str" cm="1">
+        <f t="array" ref="H36">_xlfn.IFS(C36 &gt;= 0.85, "85  &lt;", AND(C36 &gt;=0.8, C36 &lt; 0.85), "80-85", AND(C36 &gt;= 0.7, C36 &lt; 0.8), "70-80", AND(C36 &gt;= 0.6, C36 &lt; 0.7),  "60-70", AND(C36 &gt;= 0.5, C36 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="H37" t="e" cm="1">
+        <f t="array" ref="H37">_xlfn.IFS(C37 &gt;= 0.85, "85  &lt;", AND(C37 &gt;=0.8, C37 &lt; 0.85), "80-85", AND(C37 &gt;= 0.7, C37 &lt; 0.8), "70-80", AND(C37 &gt;= 0.6, C37 &lt; 0.7),  "60-70", AND(C37 &gt;= 0.5, C37 &lt; 0.6), "50-60")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="str" cm="1">
+        <f t="array" ref="H38">_xlfn.IFS(C38 &gt;= 0.85, "85  &lt;", AND(C38 &gt;=0.8, C38 &lt; 0.85), "80-85", AND(C38 &gt;= 0.7, C38 &lt; 0.8), "70-80", AND(C38 &gt;= 0.6, C38 &lt; 0.7),  "60-70", AND(C38 &gt;= 0.5, C38 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="str" cm="1">
+        <f t="array" ref="H39">_xlfn.IFS(C39 &gt;= 0.85, "85  &lt;", AND(C39 &gt;=0.8, C39 &lt; 0.85), "80-85", AND(C39 &gt;= 0.7, C39 &lt; 0.8), "70-80", AND(C39 &gt;= 0.6, C39 &lt; 0.7),  "60-70", AND(C39 &gt;= 0.5, C39 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="str" cm="1">
+        <f t="array" ref="H40">_xlfn.IFS(C40 &gt;= 0.85, "85  &lt;", AND(C40 &gt;=0.8, C40 &lt; 0.85), "80-85", AND(C40 &gt;= 0.7, C40 &lt; 0.8), "70-80", AND(C40 &gt;= 0.6, C40 &lt; 0.7),  "60-70", AND(C40 &gt;= 0.5, C40 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C22:C40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E25 E27:E36 E38:E40">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lifetime Predictions.xlsx
+++ b/Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77730681-2A05-4F1E-9C4D-91016FB22712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58017E40-D2C4-45A2-A803-BC04076FA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Playing At:  Los Angeles Kings   Home</t>
+  </si>
+  <si>
+    <t>70% or greater</t>
+  </si>
+  <si>
+    <t>less than 70%</t>
   </si>
 </sst>
 </file>
@@ -838,25 +844,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45271.320214004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45273.962201273149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-11T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-14T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50600000000000001" maxValue="0.876"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.49399999999999999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -886,7 +892,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -1088,6 +1094,196 @@
     <x v="3"/>
   </r>
   <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -1101,7 +1297,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1472,21 +1668,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D10"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1499,8 +1696,11 @@
       <c r="D3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1514,84 +1714,111 @@
         <f>C4/B4</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>SUM(B4:B6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
         <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C4:C6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
         <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="5">
+        <f>F5/F4</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="F8">
+        <f>SUM(B7:B8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="6">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C7:C8)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
+      <c r="F10" s="5">
+        <f>F9/F8</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,21 +1829,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45269</v>
       </c>
@@ -1668,7 +1895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45269</v>
       </c>
@@ -1694,7 +1921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45269</v>
       </c>
@@ -1720,7 +1947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1746,7 +1973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45269</v>
       </c>
@@ -1772,7 +1999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45269</v>
       </c>
@@ -1798,7 +2025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45269</v>
       </c>
@@ -1824,7 +2051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45269</v>
       </c>
@@ -1850,7 +2077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45269</v>
       </c>
@@ -1876,7 +2103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45269</v>
       </c>
@@ -1902,7 +2129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45269</v>
       </c>
@@ -1928,7 +2155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45269</v>
       </c>
@@ -1954,7 +2181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45270</v>
       </c>
@@ -1980,7 +2207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
@@ -2006,7 +2233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45270</v>
       </c>
@@ -2032,7 +2259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45270</v>
       </c>
@@ -2058,7 +2285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45270</v>
       </c>
@@ -2084,7 +2311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45270</v>
       </c>
@@ -2110,7 +2337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45270</v>
       </c>
@@ -2136,7 +2363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45270</v>
       </c>
@@ -2162,7 +2389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45271</v>
       </c>
@@ -2180,13 +2407,16 @@
       </c>
       <c r="F22" t="s">
         <v>11</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(C22 &gt;= 0.85, "85  &lt;", AND(C22 &gt;=0.8, C22 &lt; 0.85), "80-85", AND(C22 &gt;= 0.7, C22 &lt; 0.8), "70-80", AND(C22 &gt;= 0.6, C22 &lt; 0.7),  "60-70", AND(C22 &gt;= 0.5, C22 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45271</v>
       </c>
@@ -2204,13 +2434,16 @@
       </c>
       <c r="F23" t="s">
         <v>32</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.IFS(C23 &gt;= 0.85, "85  &lt;", AND(C23 &gt;=0.8, C23 &lt; 0.85), "80-85", AND(C23 &gt;= 0.7, C23 &lt; 0.8), "70-80", AND(C23 &gt;= 0.6, C23 &lt; 0.7),  "60-70", AND(C23 &gt;= 0.5, C23 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45271</v>
       </c>
@@ -2228,13 +2461,16 @@
       </c>
       <c r="F24" t="s">
         <v>49</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.IFS(C24 &gt;= 0.85, "85  &lt;", AND(C24 &gt;=0.8, C24 &lt; 0.85), "80-85", AND(C24 &gt;= 0.7, C24 &lt; 0.8), "70-80", AND(C24 &gt;= 0.6, C24 &lt; 0.7),  "60-70", AND(C24 &gt;= 0.5, C24 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45271</v>
       </c>
@@ -2252,295 +2488,367 @@
       </c>
       <c r="F25" t="s">
         <v>43</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(C25 &gt;= 0.85, "85  &lt;", AND(C25 &gt;=0.8, C25 &lt; 0.85), "80-85", AND(C25 &gt;= 0.7, C25 &lt; 0.8), "70-80", AND(C25 &gt;= 0.6, C25 &lt; 0.7),  "60-70", AND(C25 &gt;= 0.5, C25 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="H26" t="e" cm="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.IFS(C26 &gt;= 0.85, "85  &lt;", AND(C26 &gt;=0.8, C26 &lt; 0.85), "80-85", AND(C26 &gt;= 0.7, C26 &lt; 0.8), "70-80", AND(C26 &gt;= 0.6, C26 &lt; 0.7),  "60-70", AND(C26 &gt;= 0.5, C26 &lt; 0.6), "50-60")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45272</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>0.82399999999999995</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2">
-        <v>0.17599999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.IFS(C27 &gt;= 0.85, "85  &lt;", AND(C27 &gt;=0.8, C27 &lt; 0.85), "80-85", AND(C27 &gt;= 0.7, C27 &lt; 0.8), "70-80", AND(C27 &gt;= 0.6, C27 &lt; 0.7),  "60-70", AND(C27 &gt;= 0.5, C27 &lt; 0.6), "50-60")</f>
-        <v>80-85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45272</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2">
-        <v>0.77800000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2">
-        <v>0.222</v>
+        <v>0.308</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" ref="H28">_xlfn.IFS(C28 &gt;= 0.85, "85  &lt;", AND(C28 &gt;=0.8, C28 &lt; 0.85), "80-85", AND(C28 &gt;= 0.7, C28 &lt; 0.8), "70-80", AND(C28 &gt;= 0.6, C28 &lt; 0.7),  "60-70", AND(C28 &gt;= 0.5, C28 &lt; 0.6), "50-60")</f>
-        <v>70-80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45272</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" ref="H29">_xlfn.IFS(C29 &gt;= 0.85, "85  &lt;", AND(C29 &gt;=0.8, C29 &lt; 0.85), "80-85", AND(C29 &gt;= 0.7, C29 &lt; 0.8), "70-80", AND(C29 &gt;= 0.6, C29 &lt; 0.7),  "60-70", AND(C29 &gt;= 0.5, C29 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45272</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>0.68200000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" ref="H30">_xlfn.IFS(C30 &gt;= 0.85, "85  &lt;", AND(C30 &gt;=0.8, C30 &lt; 0.85), "80-85", AND(C30 &gt;= 0.7, C30 &lt; 0.8), "70-80", AND(C30 &gt;= 0.6, C30 &lt; 0.7),  "60-70", AND(C30 &gt;= 0.5, C30 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45272</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>0.68</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
-        <v>0.32</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" ref="H31">_xlfn.IFS(C31 &gt;= 0.85, "85  &lt;", AND(C31 &gt;=0.8, C31 &lt; 0.85), "80-85", AND(C31 &gt;= 0.7, C31 &lt; 0.8), "70-80", AND(C31 &gt;= 0.6, C31 &lt; 0.7),  "60-70", AND(C31 &gt;= 0.5, C31 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45272</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" ref="H32">_xlfn.IFS(C32 &gt;= 0.85, "85  &lt;", AND(C32 &gt;=0.8, C32 &lt; 0.85), "80-85", AND(C32 &gt;= 0.7, C32 &lt; 0.8), "70-80", AND(C32 &gt;= 0.6, C32 &lt; 0.7),  "60-70", AND(C32 &gt;= 0.5, C32 &lt; 0.6), "50-60")</f>
-        <v>60-70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45272</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>0.57199999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2">
-        <v>0.42799999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" ref="H33">_xlfn.IFS(C33 &gt;= 0.85, "85  &lt;", AND(C33 &gt;=0.8, C33 &lt; 0.85), "80-85", AND(C33 &gt;= 0.7, C33 &lt; 0.8), "70-80", AND(C33 &gt;= 0.6, C33 &lt; 0.7),  "60-70", AND(C33 &gt;= 0.5, C33 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45272</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.56200000000000006</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2">
-        <v>0.438</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" ref="H34">_xlfn.IFS(C34 &gt;= 0.85, "85  &lt;", AND(C34 &gt;=0.8, C34 &lt; 0.85), "80-85", AND(C34 &gt;= 0.7, C34 &lt; 0.8), "70-80", AND(C34 &gt;= 0.6, C34 &lt; 0.7),  "60-70", AND(C34 &gt;= 0.5, C34 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45272</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
-        <v>0.52200000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" ref="H35">_xlfn.IFS(C35 &gt;= 0.85, "85  &lt;", AND(C35 &gt;=0.8, C35 &lt; 0.85), "80-85", AND(C35 &gt;= 0.7, C35 &lt; 0.8), "70-80", AND(C35 &gt;= 0.6, C35 &lt; 0.7),  "60-70", AND(C35 &gt;= 0.5, C35 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" ref="H36">_xlfn.IFS(C36 &gt;= 0.85, "85  &lt;", AND(C36 &gt;=0.8, C36 &lt; 0.85), "80-85", AND(C36 &gt;= 0.7, C36 &lt; 0.8), "70-80", AND(C36 &gt;= 0.6, C36 &lt; 0.7),  "60-70", AND(C36 &gt;= 0.5, C36 &lt; 0.6), "50-60")</f>
-        <v>50-60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="H37" t="e" cm="1">
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="str" cm="1">
         <f t="array" ref="H37">_xlfn.IFS(C37 &gt;= 0.85, "85  &lt;", AND(C37 &gt;=0.8, C37 &lt; 0.85), "80-85", AND(C37 &gt;= 0.7, C37 &lt; 0.8), "70-80", AND(C37 &gt;= 0.6, C37 &lt; 0.7),  "60-70", AND(C37 &gt;= 0.5, C37 &lt; 0.6), "50-60")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45273</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2">
-        <v>0.73</v>
+        <v>0.622</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2">
-        <v>0.27</v>
+        <v>0.378</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" ref="H38">_xlfn.IFS(C38 &gt;= 0.85, "85  &lt;", AND(C38 &gt;=0.8, C38 &lt; 0.85), "80-85", AND(C38 &gt;= 0.7, C38 &lt; 0.8), "70-80", AND(C38 &gt;= 0.6, C38 &lt; 0.7),  "60-70", AND(C38 &gt;= 0.5, C38 &lt; 0.6), "50-60")</f>
-        <v>70-80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45273</v>
       </c>
@@ -2558,13 +2866,16 @@
       </c>
       <c r="F39" t="s">
         <v>73</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" ref="H39">_xlfn.IFS(C39 &gt;= 0.85, "85  &lt;", AND(C39 &gt;=0.8, C39 &lt; 0.85), "80-85", AND(C39 &gt;= 0.7, C39 &lt; 0.8), "70-80", AND(C39 &gt;= 0.6, C39 &lt; 0.7),  "60-70", AND(C39 &gt;= 0.5, C39 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45273</v>
       </c>
@@ -2582,6 +2893,9 @@
       </c>
       <c r="F40" t="s">
         <v>74</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" ref="H40">_xlfn.IFS(C40 &gt;= 0.85, "85  &lt;", AND(C40 &gt;=0.8, C40 &lt; 0.85), "80-85", AND(C40 &gt;= 0.7, C40 &lt; 0.8), "70-80", AND(C40 &gt;= 0.6, C40 &lt; 0.7),  "60-70", AND(C40 &gt;= 0.5, C40 &lt; 0.6), "50-60")</f>
@@ -2589,18 +2903,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C40">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E25 E27:E36 E38:E40">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E22:E35">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2611,6 +2915,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lifetime Predictions.xlsx
+++ b/Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58017E40-D2C4-45A2-A803-BC04076FA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188D043C-6944-4F38-A4F4-B9C020A17BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>less than 70%</t>
+  </si>
+  <si>
+    <t>Playing At:  Minnesota Wild   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Philadelphia Flyers   Home</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45273.962201273149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45274.309423148145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1280,7 +1286,7 @@
     <s v="Winnipeg Jets"/>
     <n v="0.43"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
   </r>
   <r>
@@ -1297,7 +1303,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1670,20 +1676,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -1783,18 +1789,18 @@
         <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1802,22 +1808,22 @@
         <v>39</v>
       </c>
       <c r="C9" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -1827,23 +1833,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45269</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45269</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45269</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45269</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45269</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45269</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45269</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45269</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45269</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45269</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45269</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45270</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45270</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45270</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45270</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45270</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45270</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45270</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45271</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45271</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45271</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45271</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45272</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45272</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45272</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45272</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45272</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45272</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45272</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45272</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45272</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45272</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45273</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45273</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45273</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45273</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45273</v>
       </c>
@@ -2895,14 +2901,216 @@
         <v>74</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" ref="H40">_xlfn.IFS(C40 &gt;= 0.85, "85  &lt;", AND(C40 &gt;=0.8, C40 &lt; 0.85), "80-85", AND(C40 &gt;= 0.7, C40 &lt; 0.8), "70-80", AND(C40 &gt;= 0.6, C40 &lt; 0.7),  "60-70", AND(C40 &gt;= 0.5, C40 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="str" cm="1">
+        <f t="array" ref="H41">_xlfn.IFS(C41 &gt;= 0.85, "85  &lt;", AND(C41 &gt;=0.8, C41 &lt; 0.85), "80-85", AND(C41 &gt;= 0.7, C41 &lt; 0.8), "70-80", AND(C41 &gt;= 0.6, C41 &lt; 0.7),  "60-70", AND(C41 &gt;= 0.5, C41 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="str" cm="1">
+        <f t="array" ref="H42">_xlfn.IFS(C42 &gt;= 0.85, "85  &lt;", AND(C42 &gt;=0.8, C42 &lt; 0.85), "80-85", AND(C42 &gt;= 0.7, C42 &lt; 0.8), "70-80", AND(C42 &gt;= 0.6, C42 &lt; 0.7),  "60-70", AND(C42 &gt;= 0.5, C42 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="str" cm="1">
+        <f t="array" ref="H43">_xlfn.IFS(C43 &gt;= 0.85, "85  &lt;", AND(C43 &gt;=0.8, C43 &lt; 0.85), "80-85", AND(C43 &gt;= 0.7, C43 &lt; 0.8), "70-80", AND(C43 &gt;= 0.6, C43 &lt; 0.7),  "60-70", AND(C43 &gt;= 0.5, C43 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="str" cm="1">
+        <f t="array" ref="H44">_xlfn.IFS(C44 &gt;= 0.85, "85  &lt;", AND(C44 &gt;=0.8, C44 &lt; 0.85), "80-85", AND(C44 &gt;= 0.7, C44 &lt; 0.8), "70-80", AND(C44 &gt;= 0.6, C44 &lt; 0.7),  "60-70", AND(C44 &gt;= 0.5, C44 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="str" cm="1">
+        <f t="array" ref="H45">_xlfn.IFS(C45 &gt;= 0.85, "85  &lt;", AND(C45 &gt;=0.8, C45 &lt; 0.85), "80-85", AND(C45 &gt;= 0.7, C45 &lt; 0.8), "70-80", AND(C45 &gt;= 0.6, C45 &lt; 0.7),  "60-70", AND(C45 &gt;= 0.5, C45 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="str" cm="1">
+        <f t="array" ref="H46">_xlfn.IFS(C46 &gt;= 0.85, "85  &lt;", AND(C46 &gt;=0.8, C46 &lt; 0.85), "80-85", AND(C46 &gt;= 0.7, C46 &lt; 0.8), "70-80", AND(C46 &gt;= 0.6, C46 &lt; 0.7),  "60-70", AND(C46 &gt;= 0.5, C46 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="str" cm="1">
+        <f t="array" ref="H47">_xlfn.IFS(C47 &gt;= 0.85, "85  &lt;", AND(C47 &gt;=0.8, C47 &lt; 0.85), "80-85", AND(C47 &gt;= 0.7, C47 &lt; 0.8), "70-80", AND(C47 &gt;= 0.6, C47 &lt; 0.7),  "60-70", AND(C47 &gt;= 0.5, C47 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" t="str" cm="1">
+        <f t="array" ref="H48">_xlfn.IFS(C48 &gt;= 0.85, "85  &lt;", AND(C48 &gt;=0.8, C48 &lt; 0.85), "80-85", AND(C48 &gt;= 0.7, C48 &lt; 0.8), "70-80", AND(C48 &gt;= 0.6, C48 &lt; 0.7),  "60-70", AND(C48 &gt;= 0.5, C48 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C22:C35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E22:E35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -2915,16 +3123,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lifetime Predictions.xlsx
+++ b/Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188D043C-6944-4F38-A4F4-B9C020A17BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66125651-D16D-4AE6-8905-2E9EBA221A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>Playing At:  Philadelphia Flyers   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Carolina Hurricanes   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Arizona Coyotes   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Winnipeg Jets   Home</t>
   </si>
 </sst>
 </file>
@@ -850,13 +859,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45274.309423148145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45276.342896296293" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="54" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-16T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -898,7 +907,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="54">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -1286,6 +1295,146 @@
     <s v="Winnipeg Jets"/>
     <n v="0.43"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
     <x v="4"/>
   </r>
@@ -1677,7 +1826,7 @@
   <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1871,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,7 +1890,7 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,18 +1898,18 @@
         <v>53</v>
       </c>
       <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
         <v>8</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.73333333333333328</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,14 +1917,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1786,18 +1935,18 @@
         <v>55</v>
       </c>
       <c r="B8" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,25 +1954,25 @@
         <v>57</v>
       </c>
       <c r="B9" s="6">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.625</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
   </sheetData>
@@ -1833,20 +1982,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2927,6 +3078,9 @@
       <c r="F41" t="s">
         <v>14</v>
       </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
       <c r="H41" t="str" cm="1">
         <f t="array" ref="H41">_xlfn.IFS(C41 &gt;= 0.85, "85  &lt;", AND(C41 &gt;=0.8, C41 &lt; 0.85), "80-85", AND(C41 &gt;= 0.7, C41 &lt; 0.8), "70-80", AND(C41 &gt;= 0.6, C41 &lt; 0.7),  "60-70", AND(C41 &gt;= 0.5, C41 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -2951,6 +3105,9 @@
       <c r="F42" t="s">
         <v>77</v>
       </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
       <c r="H42" t="str" cm="1">
         <f t="array" ref="H42">_xlfn.IFS(C42 &gt;= 0.85, "85  &lt;", AND(C42 &gt;=0.8, C42 &lt; 0.85), "80-85", AND(C42 &gt;= 0.7, C42 &lt; 0.8), "70-80", AND(C42 &gt;= 0.6, C42 &lt; 0.7),  "60-70", AND(C42 &gt;= 0.5, C42 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -2975,6 +3132,9 @@
       <c r="F43" t="s">
         <v>23</v>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
       <c r="H43" t="str" cm="1">
         <f t="array" ref="H43">_xlfn.IFS(C43 &gt;= 0.85, "85  &lt;", AND(C43 &gt;=0.8, C43 &lt; 0.85), "80-85", AND(C43 &gt;= 0.7, C43 &lt; 0.8), "70-80", AND(C43 &gt;= 0.6, C43 &lt; 0.7),  "60-70", AND(C43 &gt;= 0.5, C43 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -2999,6 +3159,9 @@
       <c r="F44" t="s">
         <v>46</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
       <c r="H44" t="str" cm="1">
         <f t="array" ref="H44">_xlfn.IFS(C44 &gt;= 0.85, "85  &lt;", AND(C44 &gt;=0.8, C44 &lt; 0.85), "80-85", AND(C44 &gt;= 0.7, C44 &lt; 0.8), "70-80", AND(C44 &gt;= 0.6, C44 &lt; 0.7),  "60-70", AND(C44 &gt;= 0.5, C44 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3023,6 +3186,9 @@
       <c r="F45" t="s">
         <v>40</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
       <c r="H45" t="str" cm="1">
         <f t="array" ref="H45">_xlfn.IFS(C45 &gt;= 0.85, "85  &lt;", AND(C45 &gt;=0.8, C45 &lt; 0.85), "80-85", AND(C45 &gt;= 0.7, C45 &lt; 0.8), "70-80", AND(C45 &gt;= 0.6, C45 &lt; 0.7),  "60-70", AND(C45 &gt;= 0.5, C45 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3047,6 +3213,9 @@
       <c r="F46" t="s">
         <v>26</v>
       </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
       <c r="H46" t="str" cm="1">
         <f t="array" ref="H46">_xlfn.IFS(C46 &gt;= 0.85, "85  &lt;", AND(C46 &gt;=0.8, C46 &lt; 0.85), "80-85", AND(C46 &gt;= 0.7, C46 &lt; 0.8), "70-80", AND(C46 &gt;= 0.6, C46 &lt; 0.7),  "60-70", AND(C46 &gt;= 0.5, C46 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3071,6 +3240,9 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47" t="str" cm="1">
         <f t="array" ref="H47">_xlfn.IFS(C47 &gt;= 0.85, "85  &lt;", AND(C47 &gt;=0.8, C47 &lt; 0.85), "80-85", AND(C47 &gt;= 0.7, C47 &lt; 0.8), "70-80", AND(C47 &gt;= 0.6, C47 &lt; 0.7),  "60-70", AND(C47 &gt;= 0.5, C47 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3095,8 +3267,485 @@
       <c r="F48" t="s">
         <v>70</v>
       </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
       <c r="H48" t="str" cm="1">
         <f t="array" ref="H48">_xlfn.IFS(C48 &gt;= 0.85, "85  &lt;", AND(C48 &gt;=0.8, C48 &lt; 0.85), "80-85", AND(C48 &gt;= 0.7, C48 &lt; 0.8), "70-80", AND(C48 &gt;= 0.6, C48 &lt; 0.7),  "60-70", AND(C48 &gt;= 0.5, C48 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str" cm="1">
+        <f t="array" ref="H49">_xlfn.IFS(C49 &gt;= 0.85, "85  &lt;", AND(C49 &gt;=0.8, C49 &lt; 0.85), "80-85", AND(C49 &gt;= 0.7, C49 &lt; 0.8), "70-80", AND(C49 &gt;= 0.6, C49 &lt; 0.7),  "60-70", AND(C49 &gt;= 0.5, C49 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="str" cm="1">
+        <f t="array" ref="H50">_xlfn.IFS(C50 &gt;= 0.85, "85  &lt;", AND(C50 &gt;=0.8, C50 &lt; 0.85), "80-85", AND(C50 &gt;= 0.7, C50 &lt; 0.8), "70-80", AND(C50 &gt;= 0.6, C50 &lt; 0.7),  "60-70", AND(C50 &gt;= 0.5, C50 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str" cm="1">
+        <f t="array" ref="H51">_xlfn.IFS(C51 &gt;= 0.85, "85  &lt;", AND(C51 &gt;=0.8, C51 &lt; 0.85), "80-85", AND(C51 &gt;= 0.7, C51 &lt; 0.8), "70-80", AND(C51 &gt;= 0.6, C51 &lt; 0.7),  "60-70", AND(C51 &gt;= 0.5, C51 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="str" cm="1">
+        <f t="array" ref="H52">_xlfn.IFS(C52 &gt;= 0.85, "85  &lt;", AND(C52 &gt;=0.8, C52 &lt; 0.85), "80-85", AND(C52 &gt;= 0.7, C52 &lt; 0.8), "70-80", AND(C52 &gt;= 0.6, C52 &lt; 0.7),  "60-70", AND(C52 &gt;= 0.5, C52 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str" cm="1">
+        <f t="array" ref="H53">_xlfn.IFS(C53 &gt;= 0.85, "85  &lt;", AND(C53 &gt;=0.8, C53 &lt; 0.85), "80-85", AND(C53 &gt;= 0.7, C53 &lt; 0.8), "70-80", AND(C53 &gt;= 0.6, C53 &lt; 0.7),  "60-70", AND(C53 &gt;= 0.5, C53 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="str" cm="1">
+        <f t="array" ref="H54">_xlfn.IFS(C54 &gt;= 0.85, "85  &lt;", AND(C54 &gt;=0.8, C54 &lt; 0.85), "80-85", AND(C54 &gt;= 0.7, C54 &lt; 0.8), "70-80", AND(C54 &gt;= 0.6, C54 &lt; 0.7),  "60-70", AND(C54 &gt;= 0.5, C54 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" t="str" cm="1">
+        <f t="array" ref="H55">_xlfn.IFS(C55 &gt;= 0.85, "85  &lt;", AND(C55 &gt;=0.8, C55 &lt; 0.85), "80-85", AND(C55 &gt;= 0.7, C55 &lt; 0.8), "70-80", AND(C55 &gt;= 0.6, C55 &lt; 0.7),  "60-70", AND(C55 &gt;= 0.5, C55 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" t="str" cm="1">
+        <f t="array" ref="H56">_xlfn.IFS(C56 &gt;= 0.85, "85  &lt;", AND(C56 &gt;=0.8, C56 &lt; 0.85), "80-85", AND(C56 &gt;= 0.7, C56 &lt; 0.8), "70-80", AND(C56 &gt;= 0.6, C56 &lt; 0.7),  "60-70", AND(C56 &gt;= 0.5, C56 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="str" cm="1">
+        <f t="array" ref="H57">_xlfn.IFS(C57 &gt;= 0.85, "85  &lt;", AND(C57 &gt;=0.8, C57 &lt; 0.85), "80-85", AND(C57 &gt;= 0.7, C57 &lt; 0.8), "70-80", AND(C57 &gt;= 0.6, C57 &lt; 0.7),  "60-70", AND(C57 &gt;= 0.5, C57 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="str" cm="1">
+        <f t="array" ref="H58">_xlfn.IFS(C58 &gt;= 0.85, "85  &lt;", AND(C58 &gt;=0.8, C58 &lt; 0.85), "80-85", AND(C58 &gt;= 0.7, C58 &lt; 0.8), "70-80", AND(C58 &gt;= 0.6, C58 &lt; 0.7),  "60-70", AND(C58 &gt;= 0.5, C58 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="str" cm="1">
+        <f t="array" ref="H59">_xlfn.IFS(C59 &gt;= 0.85, "85  &lt;", AND(C59 &gt;=0.8, C59 &lt; 0.85), "80-85", AND(C59 &gt;= 0.7, C59 &lt; 0.8), "70-80", AND(C59 &gt;= 0.6, C59 &lt; 0.7),  "60-70", AND(C59 &gt;= 0.5, C59 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="str" cm="1">
+        <f t="array" ref="H60">_xlfn.IFS(C60 &gt;= 0.85, "85  &lt;", AND(C60 &gt;=0.8, C60 &lt; 0.85), "80-85", AND(C60 &gt;= 0.7, C60 &lt; 0.8), "70-80", AND(C60 &gt;= 0.6, C60 &lt; 0.7),  "60-70", AND(C60 &gt;= 0.5, C60 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="str" cm="1">
+        <f t="array" ref="H61">_xlfn.IFS(C61 &gt;= 0.85, "85  &lt;", AND(C61 &gt;=0.8, C61 &lt; 0.85), "80-85", AND(C61 &gt;= 0.7, C61 &lt; 0.8), "70-80", AND(C61 &gt;= 0.6, C61 &lt; 0.7),  "60-70", AND(C61 &gt;= 0.5, C61 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="str" cm="1">
+        <f t="array" ref="H62">_xlfn.IFS(C62 &gt;= 0.85, "85  &lt;", AND(C62 &gt;=0.8, C62 &lt; 0.85), "80-85", AND(C62 &gt;= 0.7, C62 &lt; 0.8), "70-80", AND(C62 &gt;= 0.6, C62 &lt; 0.7),  "60-70", AND(C62 &gt;= 0.5, C62 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="str" cm="1">
+        <f t="array" ref="H63">_xlfn.IFS(C63 &gt;= 0.85, "85  &lt;", AND(C63 &gt;=0.8, C63 &lt; 0.85), "80-85", AND(C63 &gt;= 0.7, C63 &lt; 0.8), "70-80", AND(C63 &gt;= 0.6, C63 &lt; 0.7),  "60-70", AND(C63 &gt;= 0.5, C63 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="str" cm="1">
+        <f t="array" ref="H64">_xlfn.IFS(C64 &gt;= 0.85, "85  &lt;", AND(C64 &gt;=0.8, C64 &lt; 0.85), "80-85", AND(C64 &gt;= 0.7, C64 &lt; 0.8), "70-80", AND(C64 &gt;= 0.6, C64 &lt; 0.7),  "60-70", AND(C64 &gt;= 0.5, C64 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="str" cm="1">
+        <f t="array" ref="H65">_xlfn.IFS(C65 &gt;= 0.85, "85  &lt;", AND(C65 &gt;=0.8, C65 &lt; 0.85), "80-85", AND(C65 &gt;= 0.7, C65 &lt; 0.8), "70-80", AND(C65 &gt;= 0.6, C65 &lt; 0.7),  "60-70", AND(C65 &gt;= 0.5, C65 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="str" cm="1">
+        <f t="array" ref="H66">_xlfn.IFS(C66 &gt;= 0.85, "85  &lt;", AND(C66 &gt;=0.8, C66 &lt; 0.85), "80-85", AND(C66 &gt;= 0.7, C66 &lt; 0.8), "70-80", AND(C66 &gt;= 0.6, C66 &lt; 0.7),  "60-70", AND(C66 &gt;= 0.5, C66 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="str" cm="1">
+        <f t="array" ref="H67">_xlfn.IFS(C67 &gt;= 0.85, "85  &lt;", AND(C67 &gt;=0.8, C67 &lt; 0.85), "80-85", AND(C67 &gt;= 0.7, C67 &lt; 0.8), "70-80", AND(C67 &gt;= 0.6, C67 &lt; 0.7),  "60-70", AND(C67 &gt;= 0.5, C67 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
